--- a/ExcelData/Card.xlsx
+++ b/ExcelData/Card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\Fight\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1931AB-C227-4584-972B-2E95AB3D4DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D2FDAA-68A5-479B-B15B-598A6EF2EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="2080" windowWidth="20510" windowHeight="11770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="1150" windowWidth="17140" windowHeight="13030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每个轮次开始前永久提升25%攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陨星剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,18 +193,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本回合攻击力增加30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本回合恢复50%生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S006</t>
   </si>
   <si>
@@ -274,26 +262,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命上限提升30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体质+++</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命上限提升100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治疗1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本回合恢复20%生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>治疗2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,18 +278,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本回合恢复100%生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彻底疯狂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击速度提升100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小幅强化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,26 +306,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击速度增加50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超级速攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每回合开始恢复30%生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本回合攻击速度增加50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来2回合内金币获取增加&lt;color=#00B6FF&gt;100%&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接下来2个回合造成伤害增加10%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,6 +327,54 @@
   </si>
   <si>
     <t>锋刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个轮次开始前永久提升10%攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始恢复10%生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限提升50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度提升50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合攻击速度增加25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合恢复10%生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合恢复30%生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合恢复80%生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合攻击力增加25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来2回合内金币获取增加&lt;color=#00B6FF&gt;50%&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -842,10 +842,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -871,10 +871,13 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
+      <c r="D5" s="2">
+        <v>1002</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -900,10 +903,13 @@
         <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1003</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
@@ -918,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2">
         <v>100</v>
@@ -929,10 +935,13 @@
         <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1004</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -947,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2">
         <v>100</v>
@@ -958,10 +967,13 @@
         <v>1005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1004</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -976,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2">
         <v>100</v>
@@ -987,10 +999,13 @@
         <v>1006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1004</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
@@ -1005,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2">
         <v>100</v>
@@ -1016,10 +1031,13 @@
         <v>1007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1007</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1034,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2">
         <v>100</v>
@@ -1045,10 +1063,13 @@
         <v>1008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1008</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -1063,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J11" s="2">
         <v>100</v>
@@ -1074,10 +1095,13 @@
         <v>1009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1009</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
@@ -1092,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2">
         <v>100</v>
@@ -1103,10 +1127,13 @@
         <v>1010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1011</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1121,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J13" s="2">
         <v>100</v>
@@ -1132,10 +1159,13 @@
         <v>1011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1011</v>
       </c>
       <c r="E14" s="2">
         <v>3</v>
@@ -1150,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J14" s="2">
         <v>100</v>
@@ -1161,10 +1191,13 @@
         <v>1012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1012</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
@@ -1179,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2">
         <v>100</v>
@@ -1190,10 +1223,13 @@
         <v>1013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1013</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1208,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
@@ -1219,10 +1255,13 @@
         <v>1014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1014</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -1237,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J17" s="2">
         <v>3</v>
@@ -1248,10 +1287,13 @@
         <v>1015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1015</v>
       </c>
       <c r="E18" s="2">
         <v>4</v>
@@ -1266,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -1277,10 +1319,13 @@
         <v>1016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1016</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1295,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -1306,10 +1351,13 @@
         <v>1017</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1016</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
@@ -1324,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -1335,10 +1383,13 @@
         <v>1018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1016</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
@@ -1353,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -1364,10 +1415,13 @@
         <v>1019</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1019</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
@@ -1382,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -1396,7 +1450,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1020</v>
       </c>
       <c r="E23" s="2">
         <v>4</v>
@@ -1411,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
